--- a/data/NGQ_US9409_10_data.xlsx
+++ b/data/NGQ_US9409_10_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huntejos\NGQ\ngq-test-scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huntejos\NGQ\NGQ\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,8 +133,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,27 +418,27 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +451,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
@@ -482,7 +482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -495,13 +495,13 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>-0.4</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
@@ -528,5 +528,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/NGQ_US9409_10_data.xlsx
+++ b/data/NGQ_US9409_10_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huntejos\NGQ\NGQ\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huntejos\NGQ\ngq-test-scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,8 +133,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,27 +418,27 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +451,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
@@ -482,7 +482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -495,13 +495,13 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>-0.4</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
@@ -528,6 +528,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/NGQ_US9409_10_data.xlsx
+++ b/data/NGQ_US9409_10_data.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huntejos\NGQ\ngq-test-scripts\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -407,7 +402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,24 +413,24 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -496,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -511,7 +506,7 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>

--- a/data/NGQ_US9409_10_data.xlsx
+++ b/data/NGQ_US9409_10_data.xlsx
@@ -57,9 +57,6 @@
     <t>Test Quote</t>
   </si>
   <si>
-    <t>U7BM9E</t>
-  </si>
-  <si>
     <t>72 - Special Negotiated Discount</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>MCCDiscAmt</t>
+  </si>
+  <si>
+    <t>G1S77A</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,19 +462,19 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -494,31 +494,31 @@
         <v>-0.1</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
       <c r="J2">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2">
         <v>72</v>
       </c>
       <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
         <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
